--- a/汽柴煤油2.0/data_input/山东丙烯主流价.xlsx
+++ b/汽柴煤油2.0/data_input/山东丙烯主流价.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3133"/>
+  <dimension ref="A1:E3135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46208,16 +46208,50 @@
         <v>45954</v>
       </c>
       <c r="B3133" t="n">
-        <v>6015</v>
+        <v>6025</v>
       </c>
       <c r="C3133" t="n">
-        <v>-1135.2153</v>
+        <v>-1125.2153</v>
       </c>
       <c r="D3133" t="n">
         <v>466.1</v>
       </c>
       <c r="E3133" t="n">
-        <v>2598.487</v>
+        <v>2608.487</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3134" t="n">
+        <v>6025</v>
+      </c>
+      <c r="C3134" t="n">
+        <v>-1127.5302</v>
+      </c>
+      <c r="D3134" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="E3134" t="n">
+        <v>2591.628</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3135" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C3135" t="n">
+        <v>-1140.6179</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="E3135" t="n">
+        <v>2590.555</v>
       </c>
     </row>
   </sheetData>
